--- a/CoralPOS2/Design/POS Specification WORKING.xlsx
+++ b/CoralPOS2/Design/POS Specification WORKING.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="127" yWindow="71" windowWidth="19101" windowHeight="11068" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11070" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Kiến trúc framework" sheetId="1" r:id="rId1"/>
     <sheet name="Cụ thể hóa Framework ( NF)" sheetId="2" r:id="rId2"/>
     <sheet name="POS -  Tổng quan" sheetId="3" r:id="rId3"/>
     <sheet name="POS -  Mô hình" sheetId="4" r:id="rId4"/>
-    <sheet name="POS - Product Master" sheetId="5" r:id="rId5"/>
+    <sheet name="POS - PRODUCTMASTER" sheetId="5" r:id="rId5"/>
     <sheet name="POS - STOCKIN" sheetId="6" r:id="rId6"/>
     <sheet name="POS - STOCKTODEPT" sheetId="7" r:id="rId7"/>
     <sheet name="POS - STOCKOUT" sheetId="10" r:id="rId8"/>
     <sheet name="POS - DEPTSTOCKOUT" sheetId="8" r:id="rId9"/>
-    <sheet name="POS-DEPTSYNC" sheetId="9" r:id="rId10"/>
+    <sheet name="POS-MAINSYNC" sheetId="9" r:id="rId10"/>
+    <sheet name="POS-DEPTSYNC" sheetId="11" r:id="rId11"/>
+    <sheet name="POS-PO" sheetId="12" r:id="rId12"/>
+    <sheet name="POS-STKEVALUATION" sheetId="13" r:id="rId13"/>
+    <sheet name="POS-REPORT" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1837,6 +1841,4018 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="981075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> CUA HANG XUAT DONG BO</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="2733675"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON DONG BO THONG TIN CHUNG VE GIA, TEN MAT HANG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="981075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-USB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="981075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI HÀNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUẤT ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="4543425"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-USB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="4543425"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HÀNH NHẬP ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="5791200"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> CUA HANG NHẬP DONG BO</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1419225"/>
+          <a:ext cx="1600200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="1419225"/>
+          <a:ext cx="1400175" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299244</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300832</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67469</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4129088" y="2295525"/>
+          <a:ext cx="876300" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5362575" y="1419225"/>
+          <a:ext cx="1400175" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Elbow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="4981575"/>
+          <a:ext cx="4505325" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Shape 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2155032" y="4679156"/>
+          <a:ext cx="809625" cy="2290762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5295900" y="4981575"/>
+          <a:ext cx="1419225" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Off-page Connector 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="5667375"/>
+          <a:ext cx="962025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1190625"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176459</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="1209675"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81209</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="4772025"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="4791075"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="2124075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> DONG KIEM TRA TINH TRANG SERVER</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="657225"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-USB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="657225"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI HÀNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUẤT ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="4219575"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-USB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="4219575"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HÀNH NHẬP ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="5467350"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TU DONG KIEM TRA TINH TRANG SERVER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5619750" y="1095375"/>
+          <a:ext cx="1590675" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="4657725"/>
+          <a:ext cx="4505325" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Shape 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2602707" y="4355306"/>
+          <a:ext cx="809625" cy="2290762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5743575" y="4657725"/>
+          <a:ext cx="1419225" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Off-page Connector 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="5343525"/>
+          <a:ext cx="962025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Shape 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2412206" y="945356"/>
+          <a:ext cx="1028700" cy="2205037"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="1095375"/>
+          <a:ext cx="4591050" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Off-page Connector 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="1933575"/>
+          <a:ext cx="962025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500309</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="876300"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33584</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="914400"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528884</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="4448175"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605084</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="4514850"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="590550"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TAO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> DON HANG MOI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="590550"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>QUET MA VACH</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="590550"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU DON HANG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="3095625"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XEM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> LAI DON HANG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="1666875"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>IN DON HANG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="2714625"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>QUET MA VACH HANG TRA, THE HIEN DUOI DANG SO AM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="1042988"/>
+          <a:ext cx="723900" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="1042988"/>
+          <a:ext cx="857250" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Shape 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="1042988"/>
+          <a:ext cx="1890713" cy="623887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299244</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300832</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>48419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3957638" y="2105025"/>
+          <a:ext cx="1219200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="1042988"/>
+          <a:ext cx="857250" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365919</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>367507</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6272213" y="2295525"/>
+          <a:ext cx="1600200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Shape 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7896225" y="2571750"/>
+          <a:ext cx="1890713" cy="976313"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527844</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228053</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1137444" y="829469"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508794</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209003</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652794" y="1467644"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508794</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209003</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652794" y="2324894"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="904875"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MO FORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> KIEM KE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="2771775"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LƯU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> TẠM</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="904875"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>QUET MA VACH TUNG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> MAT HANG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="2762250"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ĐỌC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> TẠM</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="904875"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="4391025"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MO FORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XỬ LÝ KẾT QUẢ SAU KIỂM KÊ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="4391025"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>KIỂM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> TRA KẾT QUẢ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="4391025"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XỬ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> LÝ KẾT QUẢ TỰ ĐỘNG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="5581650"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHỈNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> SỬA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="1314450"/>
+          <a:ext cx="1323975" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Elbow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1314450"/>
+          <a:ext cx="2352675" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3757613" y="1676400"/>
+          <a:ext cx="1047750" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585789</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>500064</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4491039" y="1266825"/>
+          <a:ext cx="1857375" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 112308"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="4800600"/>
+          <a:ext cx="1771650" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="4800600"/>
+          <a:ext cx="2057400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Shape 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2793206" y="4336256"/>
+          <a:ext cx="781050" cy="2528887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5943600" y="4800600"/>
+          <a:ext cx="2047875" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5978,6 +9994,56 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339818</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579343</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Shape 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2779758" y="810327"/>
+          <a:ext cx="1360396" cy="2639825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80682</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -6004,17 +10070,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6047,16 +10113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>564776</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579904</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:rowOff>115422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6065,25 +10131,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3890682" y="582707"/>
-          <a:ext cx="1837765" cy="869577"/>
+          <a:off x="4780429" y="570381"/>
+          <a:ext cx="1746997" cy="878541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6116,16 +10182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>636494</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>8967</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>125508</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579344</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518832</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6134,25 +10200,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6445623" y="573743"/>
-          <a:ext cx="1837765" cy="869577"/>
+          <a:off x="4779869" y="2371167"/>
+          <a:ext cx="1739713" cy="878541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6174,42 +10240,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>510989</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147884</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3092824" y="959224"/>
-          <a:ext cx="887505" cy="233082"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:off x="1038225" y="800100"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -6228,41 +10292,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+      <xdr:colOff>138359</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5656729" y="977153"/>
-          <a:ext cx="869577" cy="215153"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:off x="4629150" y="2647950"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -6278,6 +10340,164 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579904</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>58272</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Elbow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2999255" y="1009652"/>
+          <a:ext cx="1781174" cy="1120"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>249052</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253254</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5190705" y="1907943"/>
+          <a:ext cx="922245" cy="4202"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518832</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6519582" y="1009652"/>
+          <a:ext cx="7844" cy="1800786"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10178726"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7027,10 +11247,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -7079,10 +11299,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -7998,10 +12218,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8102,10 +12322,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8869,10 +13089,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8921,10 +13141,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8991,6 +13211,879 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567413</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>434608</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Shape 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6013514" y="636598"/>
+          <a:ext cx="2386193" cy="4743995"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238222</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847822" y="885826"/>
+          <a:ext cx="1805185" cy="929675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NHAP MAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HANG VA SO LUONG, LY DO XUAT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275931</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247189</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933531" y="4218041"/>
+          <a:ext cx="1800058" cy="933514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH SUA SO LUONG VA LY DO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUAT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276982</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248243</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3934582" y="885825"/>
+          <a:ext cx="1800061" cy="929675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU TAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175585</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6904800" y="1917955"/>
+          <a:ext cx="1805185" cy="933517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XAC NHAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214607</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276982</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2653007" y="1350672"/>
+          <a:ext cx="1281575" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734643" y="1350672"/>
+          <a:ext cx="1170157" cy="1032111"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139726</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>117628</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674126" y="885826"/>
+          <a:ext cx="1806702" cy="929675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> VAO CSDL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175585</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446256</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Shape 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8709985" y="1815501"/>
+          <a:ext cx="880271" cy="567282"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139726</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734643" y="1350672"/>
+          <a:ext cx="2939483" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120266</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8673750" y="4201693"/>
+          <a:ext cx="1809716" cy="933514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HUY DON HANG XUAT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>188161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347909</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1140661"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68948</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378759</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8603348" y="1198140"/>
+          <a:ext cx="309811" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>252460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600502</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9396460" y="1552247"/>
+          <a:ext cx="348042" cy="338813"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277278</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9421278" y="3985175"/>
+          <a:ext cx="348042" cy="338813"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>566361</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567414</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27041</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3632817" y="3016244"/>
+          <a:ext cx="2402541" cy="1053"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9283,11 +14376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9299,10 +14392,68 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9316,7 +14467,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
@@ -9333,11 +14484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H28:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
@@ -9364,11 +14515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:8">
       <c r="H3" t="s">
@@ -9409,10 +14560,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -9428,10 +14579,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9446,7 +14597,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9457,11 +14608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9472,10 +14623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CoralPOS2/Design/POS Specification WORKING.xlsx
+++ b/CoralPOS2/Design/POS Specification WORKING.xlsx
@@ -4,30 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11070" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="127" yWindow="71" windowWidth="19101" windowHeight="11068" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kiến trúc framework" sheetId="1" r:id="rId1"/>
     <sheet name="Cụ thể hóa Framework ( NF)" sheetId="2" r:id="rId2"/>
     <sheet name="POS -  Tổng quan" sheetId="3" r:id="rId3"/>
     <sheet name="POS -  Mô hình" sheetId="4" r:id="rId4"/>
-    <sheet name="POS - PRODUCTMASTER" sheetId="5" r:id="rId5"/>
+    <sheet name="POS - PRDMASTER" sheetId="5" r:id="rId5"/>
     <sheet name="POS - STOCKIN" sheetId="6" r:id="rId6"/>
     <sheet name="POS - STOCKTODEPT" sheetId="7" r:id="rId7"/>
     <sheet name="POS - STOCKOUT" sheetId="10" r:id="rId8"/>
     <sheet name="POS - DEPTSTOCKOUT" sheetId="8" r:id="rId9"/>
-    <sheet name="POS-MAINSYNC" sheetId="9" r:id="rId10"/>
-    <sheet name="POS-DEPTSYNC" sheetId="11" r:id="rId11"/>
-    <sheet name="POS-PO" sheetId="12" r:id="rId12"/>
-    <sheet name="POS-STKEVALUATION" sheetId="13" r:id="rId13"/>
-    <sheet name="POS-REPORT" sheetId="14" r:id="rId14"/>
+    <sheet name="POS-DEPTSYNC" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Diễn giải</t>
   </si>
@@ -48,6 +44,18 @@
   </si>
   <si>
     <t>May chu</t>
+  </si>
+  <si>
+    <t>KHONG CO LOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CO LOI</t>
+  </si>
+  <si>
+    <t>KHONG</t>
+  </si>
+  <si>
+    <t>CO</t>
   </si>
 </sst>
 </file>
@@ -1841,4018 +1849,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3771900" y="981075"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHON</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> CUA HANG XUAT DONG BO</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3771900" y="2733675"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHON DONG BO THONG TIN CHUNG VE GIA, TEN MAT HANG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> ...</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581025" y="981075"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHON PHUONG THUC DONG BO :</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-WEB</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-USB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6762750" y="981075"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>THI HÀNH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> XUẤT ĐỒNG BỘ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619125" y="4543425"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CHON PHUONG THUC DONG BO :</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-WEB</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-USB</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6715125" y="4543425"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>THI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> HÀNH NHẬP ĐỒNG BỘ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3705225" y="5791200"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHON</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> CUA HANG NHẬP DONG BO</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="2" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2171700" y="1419225"/>
-          <a:ext cx="1600200" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5362575" y="1419225"/>
-          <a:ext cx="1400175" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>299244</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>143669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>300832</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67469</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4129088" y="2295525"/>
-          <a:ext cx="876300" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5362575" y="1419225"/>
-          <a:ext cx="1400175" cy="1752600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Elbow Connector 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="4981575"/>
-          <a:ext cx="4505325" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>195264</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Shape 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2155032" y="4679156"/>
-          <a:ext cx="809625" cy="2290762"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5295900" y="4981575"/>
-          <a:ext cx="1419225" cy="1247775"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Flowchart: Off-page Connector 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1962150" y="5667375"/>
-          <a:ext cx="962025" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOffpageConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WEB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>24059</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>5439</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Oval 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="1190625"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>176459</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24489</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Oval 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6572250" y="1209675"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>81209</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157839</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Oval 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="4772025"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>147884</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>176889</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Oval 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6543675" y="4791075"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4029075" y="2124075"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>TU</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> DONG KIEM TRA TINH TRANG SERVER</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1028700" y="657225"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHON PHUONG THUC DONG BO :</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-WEB</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-USB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7210425" y="657225"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>THI HÀNH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> XUẤT ĐỒNG BỘ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="4219575"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CHON PHUONG THUC DONG BO :</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-WEB</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-USB</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="4219575"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>THI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> HÀNH NHẬP ĐỒNG BỘ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="5467350"/>
-          <a:ext cx="1590675" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>TU DONG KIEM TRA TINH TRANG SERVER</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5619750" y="1095375"/>
-          <a:ext cx="1590675" cy="1466850"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2657475" y="4657725"/>
-          <a:ext cx="4505325" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>33339</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Shape 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2602707" y="4355306"/>
-          <a:ext cx="809625" cy="2290762"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5743575" y="4657725"/>
-          <a:ext cx="1419225" cy="1247775"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flowchart: Off-page Connector 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409825" y="5343525"/>
-          <a:ext cx="962025" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOffpageConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WEB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Shape 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="2" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2412206" y="945356"/>
-          <a:ext cx="1028700" cy="2205037"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>144463</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2619375" y="1095375"/>
-          <a:ext cx="4591050" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Flowchart: Off-page Connector 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428875" y="1933575"/>
-          <a:ext cx="962025" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOffpageConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WEB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>500309</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>72114</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Oval 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="876300"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33584</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>110214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Oval 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7038975" y="914400"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>528884</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>24489</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Oval 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="828675" y="4448175"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>605084</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91164</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Oval 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="4514850"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="590550"/>
-          <a:ext cx="1647825" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>TAO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> DON HANG MOI</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743325" y="590550"/>
-          <a:ext cx="1647825" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>QUET MA VACH</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6248400" y="590550"/>
-          <a:ext cx="1647825" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LUU DON HANG</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6248400" y="3095625"/>
-          <a:ext cx="1647825" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>XEM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> LAI DON HANG</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8963025" y="1666875"/>
-          <a:ext cx="1647825" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>IN DON HANG</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743325" y="2714625"/>
-          <a:ext cx="1647825" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>QUET MA VACH HANG TRA, THE HIEN DUOI DANG SO AM</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>92076</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3019425" y="1042988"/>
-          <a:ext cx="723900" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>92076</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5391150" y="1042988"/>
-          <a:ext cx="857250" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Shape 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="1042988"/>
-          <a:ext cx="1890713" cy="623887"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>299244</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>162719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>300832</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>48419</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3957638" y="2105025"/>
-          <a:ext cx="1219200" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5391150" y="1042988"/>
-          <a:ext cx="857250" cy="2124075"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>365919</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>162719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>367507</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>48419</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6272213" y="2295525"/>
-          <a:ext cx="1600200" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Shape 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="7" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7896225" y="2571750"/>
-          <a:ext cx="1890713" cy="976313"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>527844</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>67469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228053</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25283</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Oval 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1137444" y="829469"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>508794</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209003</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91958</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Oval 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9652794" y="1467644"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>508794</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209003</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>187208</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Oval 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9652794" y="2324894"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="904875"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MO FORM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> KIEM KE</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2962275" y="2771775"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LƯU</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> TẠM</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4105275" y="904875"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>QUET MA VACH TUNG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> MAT HANG</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5238750" y="2762250"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ĐỌC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> TẠM</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7953375" y="904875"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LUU</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1171575" y="4391025"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MO FORM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> XỬ LÝ KẾT QUẢ SAU KIỂM KÊ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4438650" y="4391025"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>KIỂM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> TRA KẾT QUẢ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7991475" y="4391025"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>XỬ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> LÝ KẾT QUẢ TỰ ĐỘNG</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4448175" y="5581650"/>
-          <a:ext cx="1495425" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHỈNH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> SỬA</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173038</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2781300" y="1314450"/>
-          <a:ext cx="1323975" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173038</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Elbow Connector 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5600700" y="1314450"/>
-          <a:ext cx="2352675" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3757613" y="1676400"/>
-          <a:ext cx="1047750" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585789</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>500064</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4491039" y="1266825"/>
-          <a:ext cx="1857375" cy="1133475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 112308"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2667000" y="4800600"/>
-          <a:ext cx="1771650" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="4800600"/>
-          <a:ext cx="2057400" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Shape 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2793206" y="4336256"/>
-          <a:ext cx="781050" cy="2528887"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5943600" y="4800600"/>
-          <a:ext cx="2047875" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9994,66 +5990,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339818</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579343</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>143438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Shape 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2779758" y="810327"/>
-          <a:ext cx="1360396" cy="2639825"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80682</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>170336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10062,8 +6008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="564777"/>
-          <a:ext cx="1837765" cy="869577"/>
+          <a:off x="1371600" y="762007"/>
+          <a:ext cx="1837765" cy="905435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10074,10 +6020,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -10113,26 +6059,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579904</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>189381</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>115422</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4780429" y="570381"/>
-          <a:ext cx="1746997" cy="878541"/>
+          <a:off x="9861177" y="4303061"/>
+          <a:ext cx="1837765" cy="905435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10143,10 +6089,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -10162,48 +6108,44 @@
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>DIEU</a:t>
+            <a:t>LUU VAO</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> CHINH GIA</a:t>
+            <a:t> CSDL</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579344</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>518832</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11208</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Decision 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4779869" y="2371167"/>
-          <a:ext cx="1739713" cy="878541"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="4473389" y="681322"/>
+          <a:ext cx="1344706" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -10227,11 +6169,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>LUU</a:t>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BAM NUT LUU</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10240,133 +6179,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147884</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>186414</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Oval 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1038225" y="800100"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>138359</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129264</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="2647950"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>598955</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579904</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>58272</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Elbow Connector 10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2999255" y="1009652"/>
-          <a:ext cx="1781174" cy="1120"/>
+        <a:xfrm>
+          <a:off x="5818095" y="1214722"/>
+          <a:ext cx="1255058" cy="1241608"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10374,19 +6209,18 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
-          <a:prstDash val="sysDash"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -10397,29 +6231,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>249052</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>115421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>253254</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85166</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31384</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5190705" y="1907943"/>
-          <a:ext cx="922245" cy="4202"/>
+        <a:xfrm flipV="1">
+          <a:off x="3209365" y="1214722"/>
+          <a:ext cx="1264024" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10432,13 +6266,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -10449,49 +6283,644 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>518832</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>143438</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354107</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170335</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="3" idx="3"/>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6519582" y="1009652"/>
-          <a:ext cx="7844" cy="1800786"/>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3677773" y="280153"/>
+          <a:ext cx="80680" cy="2855259"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 10178726"/>
+            <a:gd name="adj1" fmla="val -672245"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
-          <a:prstDash val="sysDash"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Diamond 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7073153" y="1999130"/>
+          <a:ext cx="1398494" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TRUNG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> KEY MAT HANG ?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Elbow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8471647" y="2456330"/>
+          <a:ext cx="457199" cy="4477"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354107</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Elbow Connector 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4408398" y="-450472"/>
+          <a:ext cx="1246088" cy="5481917"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>188253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>197219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Diamond 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8928846" y="1963265"/>
+          <a:ext cx="1407460" cy="995083"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> SUA GIA ?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>452719</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161367</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Shape 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10336306" y="2460807"/>
+          <a:ext cx="443754" cy="1842254"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3567953" y="4249270"/>
+          <a:ext cx="2034988" cy="1004047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH SUA GIA CHO MAT HANG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>197220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596152</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Elbow Connector 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6463551" y="1080245"/>
+          <a:ext cx="1290922" cy="5047129"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Flowchart: Decision 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6813176" y="4303059"/>
+          <a:ext cx="1425388" cy="905435"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GIA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> BANG 0 ?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Elbow Connector 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8238564" y="4755777"/>
+          <a:ext cx="1622613" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Elbow Connector 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5602941" y="4751294"/>
+          <a:ext cx="1210235" cy="4483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Elbow Connector 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6033248" y="3760694"/>
+          <a:ext cx="44823" cy="2940423"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 610006"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -11247,10 +7676,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -11299,10 +7728,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -12218,10 +8647,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -12322,10 +8751,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -13089,10 +9518,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -13141,10 +9570,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -13211,879 +9640,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>567413</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>100999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>434608</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10692</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Shape 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6013514" y="636598"/>
-          <a:ext cx="2386193" cy="4743995"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238222</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>214607</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="847822" y="885826"/>
-          <a:ext cx="1805185" cy="929675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>NHAP MAT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> HANG VA SO LUONG, LY DO XUAT</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>275931</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>27041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247189</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3933531" y="4218041"/>
-          <a:ext cx="1800058" cy="933514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHINH SUA SO LUONG VA LY DO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> XUAT</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276982</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>248243</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3934582" y="885825"/>
-          <a:ext cx="1800061" cy="929675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LUU TAM</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>199200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>175585</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184472</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6904800" y="1917955"/>
-          <a:ext cx="1805185" cy="933517"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>XAC NHAN</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>214607</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>17172</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276982</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>17173</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2653007" y="1350672"/>
-          <a:ext cx="1281575" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>248243</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>17172</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>199200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>96783</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Elbow Connector 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5734643" y="1350672"/>
-          <a:ext cx="1170157" cy="1032111"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139726</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>117628</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8674126" y="885826"/>
-          <a:ext cx="1806702" cy="929675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LUU</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> VAO CSDL</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>175585</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>446256</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>96783</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Shape 8"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8709985" y="1815501"/>
-          <a:ext cx="880271" cy="567282"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>248243</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>17172</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139726</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>17173</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5734643" y="1350672"/>
-          <a:ext cx="2939483" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>120266</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>182207</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8673750" y="4201693"/>
-          <a:ext cx="1809716" cy="933514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>HUY DON HANG XUAT</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>188161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>347909</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>145975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Oval 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647700" y="1140661"/>
-          <a:ext cx="309809" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>68948</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>55140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>378759</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8603348" y="1198140"/>
-          <a:ext cx="309811" cy="338814"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>252460</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600502</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>176560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Oval 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9396460" y="1552247"/>
-          <a:ext cx="348042" cy="338813"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>277278</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15720</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>132988</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Oval 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9421278" y="3985175"/>
-          <a:ext cx="348042" cy="338813"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>566361</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>567414</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>27041</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3632817" y="3016244"/>
-          <a:ext cx="2402541" cy="1053"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14376,11 +9932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14392,68 +9948,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14467,7 +9965,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
@@ -14484,11 +9982,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H28:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
@@ -14515,11 +10013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData>
     <row r="3" spans="3:8">
       <c r="H3" t="s">
@@ -14557,17 +10055,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="I6:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.55"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="9:17">
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="9:17">
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="9:17">
+      <c r="N12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="9:17">
+      <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14">
+      <c r="N24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14">
+      <c r="M27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -14579,10 +10114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14597,7 +10132,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14609,10 +10144,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14623,13 +10158,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CoralPOS2/Design/POS Specification WORKING.xlsx
+++ b/CoralPOS2/Design/POS Specification WORKING.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="127" yWindow="71" windowWidth="19101" windowHeight="11068" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11070" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Kiến trúc framework" sheetId="1" r:id="rId1"/>
     <sheet name="Cụ thể hóa Framework ( NF)" sheetId="2" r:id="rId2"/>
     <sheet name="POS -  Tổng quan" sheetId="3" r:id="rId3"/>
     <sheet name="POS -  Mô hình" sheetId="4" r:id="rId4"/>
-    <sheet name="POS - PRDMASTER" sheetId="5" r:id="rId5"/>
+    <sheet name="POS - PRODUCTMASTER" sheetId="5" r:id="rId5"/>
     <sheet name="POS - STOCKIN" sheetId="6" r:id="rId6"/>
     <sheet name="POS - STOCKTODEPT" sheetId="7" r:id="rId7"/>
     <sheet name="POS - STOCKOUT" sheetId="10" r:id="rId8"/>
     <sheet name="POS - DEPTSTOCKOUT" sheetId="8" r:id="rId9"/>
-    <sheet name="POS-DEPTSYNC" sheetId="9" r:id="rId10"/>
+    <sheet name="POS-MAINSYNC" sheetId="9" r:id="rId10"/>
+    <sheet name="POS-DEPTSYNC" sheetId="11" r:id="rId11"/>
+    <sheet name="POS-PO" sheetId="12" r:id="rId12"/>
+    <sheet name="POS-STKEVALUATION" sheetId="13" r:id="rId13"/>
+    <sheet name="POS-REPORT" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Diễn giải</t>
   </si>
@@ -44,18 +48,6 @@
   </si>
   <si>
     <t>May chu</t>
-  </si>
-  <si>
-    <t>KHONG CO LOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CO LOI</t>
-  </si>
-  <si>
-    <t>KHONG</t>
-  </si>
-  <si>
-    <t>CO</t>
   </si>
 </sst>
 </file>
@@ -1849,6 +1841,4018 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="981075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> CUA HANG XUAT DONG BO</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="2733675"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON DONG BO THONG TIN CHUNG VE GIA, TEN MAT HANG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="981075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-USB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="981075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI HÀNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUẤT ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="4543425"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-USB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="4543425"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HÀNH NHẬP ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="5791200"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> CUA HANG NHẬP DONG BO</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1419225"/>
+          <a:ext cx="1600200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="1419225"/>
+          <a:ext cx="1400175" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299244</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300832</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67469</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4129088" y="2295525"/>
+          <a:ext cx="876300" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5362575" y="1419225"/>
+          <a:ext cx="1400175" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Elbow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="4981575"/>
+          <a:ext cx="4505325" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Shape 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2155032" y="4679156"/>
+          <a:ext cx="809625" cy="2290762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5295900" y="4981575"/>
+          <a:ext cx="1419225" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Off-page Connector 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="5667375"/>
+          <a:ext cx="962025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1190625"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176459</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="1209675"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81209</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="4772025"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="4791075"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="2124075"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> DONG KIEM TRA TINH TRANG SERVER</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="657225"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-USB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="657225"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI HÀNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUẤT ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="4219575"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHON PHUONG THUC DONG BO :</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-WEB</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-USB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="4219575"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>THI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HÀNH NHẬP ĐỒNG BỘ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="5467350"/>
+          <a:ext cx="1590675" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TU DONG KIEM TRA TINH TRANG SERVER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5619750" y="1095375"/>
+          <a:ext cx="1590675" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="4657725"/>
+          <a:ext cx="4505325" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Shape 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2602707" y="4355306"/>
+          <a:ext cx="809625" cy="2290762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5743575" y="4657725"/>
+          <a:ext cx="1419225" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Off-page Connector 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="5343525"/>
+          <a:ext cx="962025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Shape 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2412206" y="945356"/>
+          <a:ext cx="1028700" cy="2205037"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="1095375"/>
+          <a:ext cx="4591050" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Off-page Connector 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="1933575"/>
+          <a:ext cx="962025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500309</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="876300"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33584</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="914400"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528884</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="4448175"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605084</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="4514850"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="590550"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TAO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> DON HANG MOI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="590550"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>QUET MA VACH</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="590550"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU DON HANG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="3095625"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XEM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> LAI DON HANG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="1666875"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>IN DON HANG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="2714625"/>
+          <a:ext cx="1647825" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>QUET MA VACH HANG TRA, THE HIEN DUOI DANG SO AM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="1042988"/>
+          <a:ext cx="723900" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="1042988"/>
+          <a:ext cx="857250" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Shape 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="1042988"/>
+          <a:ext cx="1890713" cy="623887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299244</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300832</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>48419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3957638" y="2105025"/>
+          <a:ext cx="1219200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="1042988"/>
+          <a:ext cx="857250" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365919</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>367507</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6272213" y="2295525"/>
+          <a:ext cx="1600200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Shape 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7896225" y="2571750"/>
+          <a:ext cx="1890713" cy="976313"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527844</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228053</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1137444" y="829469"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508794</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209003</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652794" y="1467644"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508794</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209003</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652794" y="2324894"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="904875"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MO FORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> KIEM KE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="2771775"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LƯU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> TẠM</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="904875"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>QUET MA VACH TUNG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> MAT HANG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="2762250"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ĐỌC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> TẠM</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="904875"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="4391025"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MO FORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XỬ LÝ KẾT QUẢ SAU KIỂM KÊ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="4391025"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>KIỂM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> TRA KẾT QUẢ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="4391025"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XỬ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> LÝ KẾT QUẢ TỰ ĐỘNG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="5581650"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHỈNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> SỬA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="1314450"/>
+          <a:ext cx="1323975" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Elbow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1314450"/>
+          <a:ext cx="2352675" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3757613" y="1676400"/>
+          <a:ext cx="1047750" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585789</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>500064</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4491039" y="1266825"/>
+          <a:ext cx="1857375" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 112308"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="4800600"/>
+          <a:ext cx="1771650" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="4800600"/>
+          <a:ext cx="2057400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Shape 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2793206" y="4336256"/>
+          <a:ext cx="781050" cy="2528887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5943600" y="4800600"/>
+          <a:ext cx="2047875" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5990,16 +9994,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339818</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579343</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Shape 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2779758" y="810327"/>
+          <a:ext cx="1360396" cy="2639825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80682</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>170336</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89654</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6008,8 +10062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="762007"/>
-          <a:ext cx="1837765" cy="905435"/>
+          <a:off x="1371600" y="564777"/>
+          <a:ext cx="1837765" cy="869577"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6020,10 +10074,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -6059,26 +10113,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161367</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80684</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579904</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115422</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9861177" y="4303061"/>
-          <a:ext cx="1837765" cy="905435"/>
+          <a:off x="4780429" y="570381"/>
+          <a:ext cx="1746997" cy="878541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6089,10 +10143,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -6108,44 +10162,48 @@
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>LUU VAO</a:t>
+            <a:t>DIEU</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> CSDL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600636</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>89651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170334</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flowchart: Decision 6"/>
+            <a:t> CHINH GIA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579344</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518832</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4473389" y="681322"/>
-          <a:ext cx="1344706" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+          <a:off x="4779869" y="2371167"/>
+          <a:ext cx="1739713" cy="878541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -6169,39 +10227,146 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>BAM NUT LUU</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31381</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>618565</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LUU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147884</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="800100"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138359</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="2647950"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579904</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>58272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Elbow Connector 10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="22" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5818095" y="1214722"/>
-          <a:ext cx="1255058" cy="1241608"/>
+        <a:xfrm flipV="1">
+          <a:off x="2999255" y="1009652"/>
+          <a:ext cx="1781174" cy="1120"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6209,18 +10374,19 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -6231,29 +10397,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31381</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600636</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31384</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>249052</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253254</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3209365" y="1214722"/>
-          <a:ext cx="1264024" cy="3"/>
+        <a:xfrm rot="5400000">
+          <a:off x="5190705" y="1907943"/>
+          <a:ext cx="922245" cy="4202"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6266,13 +10432,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -6283,644 +10449,49 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>354107</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170335</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518832</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="2" idx="2"/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="3677773" y="280153"/>
-          <a:ext cx="80680" cy="2855259"/>
+        <a:xfrm flipV="1">
+          <a:off x="6519582" y="1009652"/>
+          <a:ext cx="7844" cy="1800786"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -672245"/>
+            <a:gd name="adj1" fmla="val 10178726"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>618565</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Diamond 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7073153" y="1999130"/>
-          <a:ext cx="1398494" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>TRUNG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> KEY MAT HANG ?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>537881</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>94125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Elbow Connector 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="41" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8471647" y="2456330"/>
-          <a:ext cx="457199" cy="4477"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>354107</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Elbow Connector 34"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="2"/>
-          <a:endCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4408398" y="-450472"/>
-          <a:ext cx="1246088" cy="5481917"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -18345"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>537881</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>188253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>197219</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Diamond 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8928846" y="1963265"/>
-          <a:ext cx="1407460" cy="995083"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHINH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> SUA GIA ?</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>94125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>452719</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161367</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Shape 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="3"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10336306" y="2460807"/>
-          <a:ext cx="443754" cy="1842254"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>340659</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>439270</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3567953" y="4249270"/>
-          <a:ext cx="2034988" cy="1004047"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CHINH SUA GIA CHO MAT HANG</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>197220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596152</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Elbow Connector 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="2"/>
-          <a:endCxn id="45" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6463551" y="1080245"/>
-          <a:ext cx="1290922" cy="5047129"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Flowchart: Decision 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6813176" y="4303059"/>
-          <a:ext cx="1425388" cy="905435"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>GIA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> BANG 0 ?</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22414</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Elbow Connector 49"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8238564" y="4755777"/>
-          <a:ext cx="1622613" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>439270</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Elbow Connector 51"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="3"/>
-          <a:endCxn id="48" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5602941" y="4751294"/>
-          <a:ext cx="1210235" cy="4483"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Elbow Connector 53"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="2"/>
-          <a:endCxn id="45" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6033248" y="3760694"/>
-          <a:ext cx="44823" cy="2940423"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 610006"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -7676,10 +11247,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -7728,10 +11299,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8647,10 +12218,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8751,10 +12322,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -9518,10 +13089,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -9570,10 +13141,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -9640,6 +13211,879 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567413</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>434608</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Shape 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6013514" y="636598"/>
+          <a:ext cx="2386193" cy="4743995"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238222</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847822" y="885826"/>
+          <a:ext cx="1805185" cy="929675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NHAP MAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HANG VA SO LUONG, LY DO XUAT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275931</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247189</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933531" y="4218041"/>
+          <a:ext cx="1800058" cy="933514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH SUA SO LUONG VA LY DO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUAT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276982</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248243</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3934582" y="885825"/>
+          <a:ext cx="1800061" cy="929675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU TAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175585</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6904800" y="1917955"/>
+          <a:ext cx="1805185" cy="933517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XAC NHAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214607</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276982</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2653007" y="1350672"/>
+          <a:ext cx="1281575" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734643" y="1350672"/>
+          <a:ext cx="1170157" cy="1032111"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139726</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>117628</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674126" y="885826"/>
+          <a:ext cx="1806702" cy="929675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> VAO CSDL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175585</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446256</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Shape 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8709985" y="1815501"/>
+          <a:ext cx="880271" cy="567282"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139726</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734643" y="1350672"/>
+          <a:ext cx="2939483" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120266</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8673750" y="4201693"/>
+          <a:ext cx="1809716" cy="933514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HUY DON HANG XUAT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>188161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347909</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1140661"/>
+          <a:ext cx="309809" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68948</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378759</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8603348" y="1198140"/>
+          <a:ext cx="309811" cy="338814"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>252460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600502</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9396460" y="1552247"/>
+          <a:ext cx="348042" cy="338813"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277278</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9421278" y="3985175"/>
+          <a:ext cx="348042" cy="338813"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>566361</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567414</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27041</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3632817" y="3016244"/>
+          <a:ext cx="2402541" cy="1053"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9932,11 +14376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9948,10 +14392,70 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F21:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9965,7 +14469,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
@@ -9982,11 +14486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H28:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
@@ -10013,11 +14517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:8">
       <c r="H3" t="s">
@@ -10055,54 +14559,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I6:Q27"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="9:17">
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="9:17">
-      <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="9:17">
-      <c r="N12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="9:17">
-      <c r="L16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="13:14">
-      <c r="N24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="13:14">
-      <c r="M27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10114,10 +14581,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10132,7 +14599,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10144,10 +14611,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10158,10 +14625,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>